--- a/data/facilities_management/RM3830 Direct Award Data (for Dev & Test).xlsx
+++ b/data/facilities_management/RM3830 Direct Award Data (for Dev & Test).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tariq/ccs/github/crown-marketplace/data/facilities_management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iceraluk/Projects/crown-marketplace/data/facilities_management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0846C56-7B7E-3049-A712-067EE9686C26}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8CB535-CAE1-9C42-877B-9C21B88EA553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17040" activeTab="2" xr2:uid="{E52F7FF7-80D8-A545-86A4-0E8FF36F8E0B}"/>
+    <workbookView xWindow="6380" yWindow="460" windowWidth="28800" windowHeight="17040" xr2:uid="{E52F7FF7-80D8-A545-86A4-0E8FF36F8E0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Prices" sheetId="1" r:id="rId1"/>
@@ -1062,9 +1062,9 @@
   </sheetPr>
   <dimension ref="A1:Q1145"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -77848,8 +77848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F73148-05BF-EE45-AD1F-B3DF659C8157}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
